--- a/dataproject/Aktie-i-depot-gennemsnit.xlsx
+++ b/dataproject/Aktie-i-depot-gennemsnit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PeterVilmar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BD1C694-26E2-3D46-8780-FB5E1962D16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC50190-7B01-F542-B99A-EC78F7AF2050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1900" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="1880" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FORMUE12" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>2014</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>Brønderslev</t>
+  </si>
+  <si>
+    <t>Enhed</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>By</t>
   </si>
 </sst>
 </file>
@@ -437,7 +446,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -449,6 +458,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
